--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Pros1-Tyro3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Pros1-Tyro3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.89806302685257</v>
+        <v>15.33750333333333</v>
       </c>
       <c r="H2">
-        <v>9.89806302685257</v>
+        <v>46.01251</v>
       </c>
       <c r="I2">
-        <v>0.09871103384458031</v>
+        <v>0.1440483515229198</v>
       </c>
       <c r="J2">
-        <v>0.09871103384458031</v>
+        <v>0.1440483515229198</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.94473098323928</v>
+        <v>0.096929</v>
       </c>
       <c r="N2">
-        <v>3.94473098323928</v>
+        <v>0.290787</v>
       </c>
       <c r="O2">
-        <v>0.8078784198937058</v>
+        <v>0.01940247578118474</v>
       </c>
       <c r="P2">
-        <v>0.8078784198937058</v>
+        <v>0.01940247578118474</v>
       </c>
       <c r="Q2">
-        <v>39.04519589608051</v>
+        <v>1.486648860596667</v>
       </c>
       <c r="R2">
-        <v>39.04519589608051</v>
+        <v>13.37983974537</v>
       </c>
       <c r="S2">
-        <v>0.07974651404843365</v>
+        <v>0.002794894651743038</v>
       </c>
       <c r="T2">
-        <v>0.07974651404843365</v>
+        <v>0.002794894651743038</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.89806302685257</v>
+        <v>15.33750333333333</v>
       </c>
       <c r="H3">
-        <v>9.89806302685257</v>
+        <v>46.01251</v>
       </c>
       <c r="I3">
-        <v>0.09871103384458031</v>
+        <v>0.1440483515229198</v>
       </c>
       <c r="J3">
-        <v>0.09871103384458031</v>
+        <v>0.1440483515229198</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.938096538949388</v>
+        <v>3.954952666666667</v>
       </c>
       <c r="N3">
-        <v>0.938096538949388</v>
+        <v>11.864858</v>
       </c>
       <c r="O3">
-        <v>0.1921215801062942</v>
+        <v>0.7916709481242146</v>
       </c>
       <c r="P3">
-        <v>0.1921215801062942</v>
+        <v>0.7916709481242146</v>
       </c>
       <c r="Q3">
-        <v>9.285338667793301</v>
+        <v>60.65909970817555</v>
       </c>
       <c r="R3">
-        <v>9.285338667793301</v>
+        <v>545.93189737358</v>
       </c>
       <c r="S3">
-        <v>0.01896451979614665</v>
+        <v>0.1140388950258801</v>
       </c>
       <c r="T3">
-        <v>0.01896451979614665</v>
+        <v>0.1140388950258801</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>64.74859388046271</v>
+        <v>15.33750333333333</v>
       </c>
       <c r="H4">
-        <v>64.74859388046271</v>
+        <v>46.01251</v>
       </c>
       <c r="I4">
-        <v>0.6457223625050714</v>
+        <v>0.1440483515229198</v>
       </c>
       <c r="J4">
-        <v>0.6457223625050714</v>
+        <v>0.1440483515229198</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.94473098323928</v>
+        <v>0.9438210000000001</v>
       </c>
       <c r="N4">
-        <v>3.94473098323928</v>
+        <v>2.831463</v>
       </c>
       <c r="O4">
-        <v>0.8078784198937058</v>
+        <v>0.1889265760946008</v>
       </c>
       <c r="P4">
-        <v>0.8078784198937058</v>
+        <v>0.1889265760946008</v>
       </c>
       <c r="Q4">
-        <v>255.4157844014385</v>
+        <v>14.47585773357</v>
       </c>
       <c r="R4">
-        <v>255.4157844014385</v>
+        <v>130.28271960213</v>
       </c>
       <c r="S4">
-        <v>0.5216651619106278</v>
+        <v>0.02721456184529672</v>
       </c>
       <c r="T4">
-        <v>0.5216651619106278</v>
+        <v>0.02721456184529672</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>64.74859388046271</v>
+        <v>64.92210766666668</v>
       </c>
       <c r="H5">
-        <v>64.74859388046271</v>
+        <v>194.766323</v>
       </c>
       <c r="I5">
-        <v>0.6457223625050714</v>
+        <v>0.609742171429695</v>
       </c>
       <c r="J5">
-        <v>0.6457223625050714</v>
+        <v>0.6097421714296949</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.938096538949388</v>
+        <v>0.096929</v>
       </c>
       <c r="N5">
-        <v>0.938096538949388</v>
+        <v>0.290787</v>
       </c>
       <c r="O5">
-        <v>0.1921215801062942</v>
+        <v>0.01940247578118474</v>
       </c>
       <c r="P5">
-        <v>0.1921215801062942</v>
+        <v>0.01940247578118474</v>
       </c>
       <c r="Q5">
-        <v>60.74043182110159</v>
+        <v>6.292834974022334</v>
       </c>
       <c r="R5">
-        <v>60.74043182110159</v>
+        <v>56.63551476620101</v>
       </c>
       <c r="S5">
-        <v>0.1240572005944436</v>
+        <v>0.01183050771393165</v>
       </c>
       <c r="T5">
-        <v>0.1240572005944436</v>
+        <v>0.01183050771393165</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.447704777981</v>
+        <v>64.92210766666668</v>
       </c>
       <c r="H6">
-        <v>10.447704777981</v>
+        <v>194.766323</v>
       </c>
       <c r="I6">
-        <v>0.1041924806034908</v>
+        <v>0.609742171429695</v>
       </c>
       <c r="J6">
-        <v>0.1041924806034908</v>
+        <v>0.6097421714296949</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.94473098323928</v>
+        <v>3.954952666666667</v>
       </c>
       <c r="N6">
-        <v>3.94473098323928</v>
+        <v>11.864858</v>
       </c>
       <c r="O6">
-        <v>0.8078784198937058</v>
+        <v>0.7916709481242146</v>
       </c>
       <c r="P6">
-        <v>0.8078784198937058</v>
+        <v>0.7916709481242146</v>
       </c>
       <c r="Q6">
-        <v>41.21338474143872</v>
+        <v>256.7638628419038</v>
       </c>
       <c r="R6">
-        <v>41.21338474143872</v>
+        <v>2310.874765577134</v>
       </c>
       <c r="S6">
-        <v>0.08417485659475374</v>
+        <v>0.482715162967064</v>
       </c>
       <c r="T6">
-        <v>0.08417485659475374</v>
+        <v>0.4827151629670639</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.447704777981</v>
+        <v>64.92210766666668</v>
       </c>
       <c r="H7">
-        <v>10.447704777981</v>
+        <v>194.766323</v>
       </c>
       <c r="I7">
-        <v>0.1041924806034908</v>
+        <v>0.609742171429695</v>
       </c>
       <c r="J7">
-        <v>0.1041924806034908</v>
+        <v>0.6097421714296949</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.938096538949388</v>
+        <v>0.9438210000000001</v>
       </c>
       <c r="N7">
-        <v>0.938096538949388</v>
+        <v>2.831463</v>
       </c>
       <c r="O7">
-        <v>0.1921215801062942</v>
+        <v>0.1889265760946008</v>
       </c>
       <c r="P7">
-        <v>0.1921215801062942</v>
+        <v>0.1889265760946008</v>
       </c>
       <c r="Q7">
-        <v>9.80095569218896</v>
+        <v>61.27484858006102</v>
       </c>
       <c r="R7">
-        <v>9.80095569218896</v>
+        <v>551.4736372205491</v>
       </c>
       <c r="S7">
-        <v>0.02001762400873706</v>
+        <v>0.1151965007486994</v>
       </c>
       <c r="T7">
-        <v>0.02001762400873706</v>
+        <v>0.1151965007486994</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.1787551218581</v>
+        <v>10.67805633333333</v>
       </c>
       <c r="H8">
-        <v>15.1787551218581</v>
+        <v>32.034169</v>
       </c>
       <c r="I8">
-        <v>0.1513741230468575</v>
+        <v>0.1002872748488753</v>
       </c>
       <c r="J8">
-        <v>0.1513741230468575</v>
+        <v>0.1002872748488753</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.94473098323928</v>
+        <v>0.096929</v>
       </c>
       <c r="N8">
-        <v>3.94473098323928</v>
+        <v>0.290787</v>
       </c>
       <c r="O8">
-        <v>0.8078784198937058</v>
+        <v>0.01940247578118474</v>
       </c>
       <c r="P8">
-        <v>0.8078784198937058</v>
+        <v>0.01940247578118474</v>
       </c>
       <c r="Q8">
-        <v>59.87610561619556</v>
+        <v>1.035013322333667</v>
       </c>
       <c r="R8">
-        <v>59.87610561619556</v>
+        <v>9.315119901002999</v>
       </c>
       <c r="S8">
-        <v>0.1222918873398906</v>
+        <v>0.00194582142141632</v>
       </c>
       <c r="T8">
-        <v>0.1222918873398906</v>
+        <v>0.00194582142141632</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10.67805633333333</v>
+      </c>
+      <c r="H9">
+        <v>32.034169</v>
+      </c>
+      <c r="I9">
+        <v>0.1002872748488753</v>
+      </c>
+      <c r="J9">
+        <v>0.1002872748488753</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.954952666666667</v>
+      </c>
+      <c r="N9">
+        <v>11.864858</v>
+      </c>
+      <c r="O9">
+        <v>0.7916709481242146</v>
+      </c>
+      <c r="P9">
+        <v>0.7916709481242146</v>
+      </c>
+      <c r="Q9">
+        <v>42.23120737033355</v>
+      </c>
+      <c r="R9">
+        <v>380.080866333002</v>
+      </c>
+      <c r="S9">
+        <v>0.07939452196440278</v>
+      </c>
+      <c r="T9">
+        <v>0.07939452196440278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>15.1787551218581</v>
-      </c>
-      <c r="H9">
-        <v>15.1787551218581</v>
-      </c>
-      <c r="I9">
-        <v>0.1513741230468575</v>
-      </c>
-      <c r="J9">
-        <v>0.1513741230468575</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.938096538949388</v>
-      </c>
-      <c r="N9">
-        <v>0.938096538949388</v>
-      </c>
-      <c r="O9">
-        <v>0.1921215801062942</v>
-      </c>
-      <c r="P9">
-        <v>0.1921215801062942</v>
-      </c>
-      <c r="Q9">
-        <v>14.23913764537538</v>
-      </c>
-      <c r="R9">
-        <v>14.23913764537538</v>
-      </c>
-      <c r="S9">
-        <v>0.02908223570696685</v>
-      </c>
-      <c r="T9">
-        <v>0.02908223570696685</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>10.67805633333333</v>
+      </c>
+      <c r="H10">
+        <v>32.034169</v>
+      </c>
+      <c r="I10">
+        <v>0.1002872748488753</v>
+      </c>
+      <c r="J10">
+        <v>0.1002872748488753</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.9438210000000001</v>
+      </c>
+      <c r="N10">
+        <v>2.831463</v>
+      </c>
+      <c r="O10">
+        <v>0.1889265760946008</v>
+      </c>
+      <c r="P10">
+        <v>0.1889265760946008</v>
+      </c>
+      <c r="Q10">
+        <v>10.078173806583</v>
+      </c>
+      <c r="R10">
+        <v>90.703564259247</v>
+      </c>
+      <c r="S10">
+        <v>0.01894693146305618</v>
+      </c>
+      <c r="T10">
+        <v>0.01894693146305618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>15.537021</v>
+      </c>
+      <c r="H11">
+        <v>46.611063</v>
+      </c>
+      <c r="I11">
+        <v>0.14592220219851</v>
+      </c>
+      <c r="J11">
+        <v>0.14592220219851</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.096929</v>
+      </c>
+      <c r="N11">
+        <v>0.290787</v>
+      </c>
+      <c r="O11">
+        <v>0.01940247578118474</v>
+      </c>
+      <c r="P11">
+        <v>0.01940247578118474</v>
+      </c>
+      <c r="Q11">
+        <v>1.505987908509</v>
+      </c>
+      <c r="R11">
+        <v>13.553891176581</v>
+      </c>
+      <c r="S11">
+        <v>0.002831251994093733</v>
+      </c>
+      <c r="T11">
+        <v>0.002831251994093732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>15.537021</v>
+      </c>
+      <c r="H12">
+        <v>46.611063</v>
+      </c>
+      <c r="I12">
+        <v>0.14592220219851</v>
+      </c>
+      <c r="J12">
+        <v>0.14592220219851</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.954952666666667</v>
+      </c>
+      <c r="N12">
+        <v>11.864858</v>
+      </c>
+      <c r="O12">
+        <v>0.7916709481242146</v>
+      </c>
+      <c r="P12">
+        <v>0.7916709481242146</v>
+      </c>
+      <c r="Q12">
+        <v>61.448182636006</v>
+      </c>
+      <c r="R12">
+        <v>553.0336437240541</v>
+      </c>
+      <c r="S12">
+        <v>0.1155223681668678</v>
+      </c>
+      <c r="T12">
+        <v>0.1155223681668677</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>15.537021</v>
+      </c>
+      <c r="H13">
+        <v>46.611063</v>
+      </c>
+      <c r="I13">
+        <v>0.14592220219851</v>
+      </c>
+      <c r="J13">
+        <v>0.14592220219851</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.9438210000000001</v>
+      </c>
+      <c r="N13">
+        <v>2.831463</v>
+      </c>
+      <c r="O13">
+        <v>0.1889265760946008</v>
+      </c>
+      <c r="P13">
+        <v>0.1889265760946008</v>
+      </c>
+      <c r="Q13">
+        <v>14.664166697241</v>
+      </c>
+      <c r="R13">
+        <v>131.977500275169</v>
+      </c>
+      <c r="S13">
+        <v>0.02756858203754853</v>
+      </c>
+      <c r="T13">
+        <v>0.02756858203754852</v>
       </c>
     </row>
   </sheetData>
